--- a/Usability/Task Record Sheet.xlsx
+++ b/Usability/Task Record Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigaz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigaz\Documents\GitHub\HypermediaApplications2018\Usability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{906361C3-ED5E-4DFA-831D-0DED3589FDFD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41D06565-3769-4FE5-A3F8-3225CF0CA120}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{368B787F-52DF-48B5-B0F9-8D1963533792}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Task Time:
 Min &amp; Sec</t>
@@ -49,6 +50,24 @@
   <si>
     <t>Number of
 errors</t>
+  </si>
+  <si>
+    <t>• Task 1: You stumbled upon the website of “The Big Family", understand what is the scope of this association.</t>
+  </si>
+  <si>
+    <t>• Task 2: You are helping a friend looking for services for disabled people near Certaldo. Identify the ones offered by the association.</t>
+  </si>
+  <si>
+    <t>• Task 3: You want to write an email to have some more information about the association. Find the address.</t>
+  </si>
+  <si>
+    <t>• Task 4: You need to contact someone working in the Pet Therapy service. Find a telephone number to call.</t>
+  </si>
+  <si>
+    <t>• Task 5: You want to visit the association’s site nearest to your house. Find where it is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gloria Lanini</t>
   </si>
 </sst>
 </file>
@@ -310,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -324,91 +343,97 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,38 +750,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CDC930-621F-4BAE-B0CA-A07AEFB244A0}">
-  <dimension ref="B1:I27"/>
+  <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14.44140625" style="1"/>
     <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="16.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="14.44140625" style="1"/>
+    <col min="4" max="8" width="22.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="1"/>
+    <col min="10" max="10" width="116.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="30"/>
-      <c r="C2" s="27" t="s">
+    <row r="1" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="25"/>
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="35" t="s">
+        <v>11</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="9"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="3"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="2:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="4">
         <v>1</v>
       </c>
@@ -766,278 +795,293 @@
       <c r="F3" s="4">
         <v>3</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="6">
         <v>4</v>
       </c>
       <c r="H3" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
+      <c r="J3" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="30">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="15" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="28"/>
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="15" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="J5" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="28"/>
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="2:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="7"/>
-      <c r="C7" s="18" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11"/>
+      <c r="J6" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="31"/>
+      <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="J7" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="32">
         <v>2</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="15" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="28"/>
+      <c r="C9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="15" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="28"/>
+      <c r="C10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="2:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="11"/>
-      <c r="C11" s="24" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="2:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="33"/>
+      <c r="C11" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30">
         <v>3</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="15" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="28"/>
+      <c r="C13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="15" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="28"/>
+      <c r="C14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="2:9" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="7"/>
-      <c r="C15" s="18" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="2:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="31"/>
+      <c r="C15" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="32">
         <v>4</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="16"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="16"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="25"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6">
+      <c r="B20" s="28">
         <v>5</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="16"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="16"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="16"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="16"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Usability/Task Record Sheet.xlsx
+++ b/Usability/Task Record Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigaz\Documents\GitHub\HypermediaApplications2018\Usability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41D06565-3769-4FE5-A3F8-3225CF0CA120}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C237397-5292-421A-BD74-438EF7A64B67}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{368B787F-52DF-48B5-B0F9-8D1963533792}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Task Time:
 Min &amp; Sec</t>
@@ -36,45 +35,67 @@
 Yes, No or Assist</t>
   </si>
   <si>
-    <t>Comments on
+    <t>Partecipants →</t>
+  </si>
+  <si>
+    <t>Task
+↓</t>
+  </si>
+  <si>
+    <t>Number of
+errors</t>
+  </si>
+  <si>
+    <t>• Task 1: You stumbled upon the website of “The Big Family", understand what is the scope of this association.</t>
+  </si>
+  <si>
+    <t>• Task 2: You are helping a friend looking for services for disabled people near Certaldo. Identify the ones offered by the association.</t>
+  </si>
+  <si>
+    <t>• Task 3: You want to write an email to have some more information about the association. Find the address.</t>
+  </si>
+  <si>
+    <t>• Task 4: You need to contact someone working in the Pet Therapy service. Find a telephone number to call.</t>
+  </si>
+  <si>
+    <t>• Task 5: You want to visit the association’s site nearest to your house. Find where it is.</t>
+  </si>
+  <si>
+    <t>Comments
 on observated
 behaviour</t>
   </si>
   <si>
-    <t>Partecipants →</t>
-  </si>
-  <si>
-    <t>Task
-↓</t>
-  </si>
-  <si>
-    <t>Number of
-errors</t>
-  </si>
-  <si>
-    <t>• Task 1: You stumbled upon the website of “The Big Family", understand what is the scope of this association.</t>
-  </si>
-  <si>
-    <t>• Task 2: You are helping a friend looking for services for disabled people near Certaldo. Identify the ones offered by the association.</t>
-  </si>
-  <si>
-    <t>• Task 3: You want to write an email to have some more information about the association. Find the address.</t>
-  </si>
-  <si>
-    <t>• Task 4: You need to contact someone working in the Pet Therapy service. Find a telephone number to call.</t>
-  </si>
-  <si>
-    <t>• Task 5: You want to visit the association’s site nearest to your house. Find where it is.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gloria Lanini</t>
+    <t>0 min 38 sec</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>0 min 9 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Young Adult (F) 20Y</t>
+  </si>
+  <si>
+    <t>0 min 18 sec</t>
+  </si>
+  <si>
+    <t>0 min 15 sec</t>
+  </si>
+  <si>
+    <t>0 min 21 sec</t>
+  </si>
+  <si>
+    <t>Clicked on "Services"
+instead of "Who We Are"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +126,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +154,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -329,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -337,14 +372,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,48 +381,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -409,32 +408,74 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,14 +794,14 @@
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14.44140625" style="1"/>
     <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="8" width="22.44140625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="22.44140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" style="1"/>
     <col min="10" max="10" width="116.33203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="14.44140625" style="1"/>
@@ -768,325 +809,356 @@
   <sheetData>
     <row r="1" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="25"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="2:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="23" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="24"/>
+      <c r="J4" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="16"/>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="26"/>
+      <c r="J5" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16"/>
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="4">
+      <c r="D6" s="26">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="26"/>
+      <c r="J6" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="18"/>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="28"/>
+      <c r="J7" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="C8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="16"/>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="16"/>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="2:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="20"/>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
         <v>3</v>
       </c>
-      <c r="G3" s="6">
+      <c r="C12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="16"/>
+      <c r="C13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16"/>
+      <c r="C14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4">
+      <c r="D14" s="26">
+        <v>0</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="2:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="18"/>
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="19">
+        <v>4</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16"/>
+      <c r="C17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="16"/>
+      <c r="C18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="20"/>
+      <c r="C19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="16">
         <v>5</v>
       </c>
-      <c r="J3" s="34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30">
+      <c r="C20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16"/>
+      <c r="C21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D21" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="16"/>
+      <c r="C22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="26">
         <v>0</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8"/>
-      <c r="J4" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28"/>
-      <c r="C5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
-      <c r="J5" s="34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
-      <c r="C6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="11"/>
-      <c r="J6" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="31"/>
-      <c r="C7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14"/>
-      <c r="J7" s="34" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16"/>
+      <c r="C23" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="32">
-        <v>2</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="28"/>
-      <c r="C9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="C10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="33"/>
-      <c r="C11" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="C13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="28"/>
-      <c r="C14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="2:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="31"/>
-      <c r="C15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="32">
-        <v>4</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="28"/>
-      <c r="C17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
-      <c r="C18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="33"/>
-      <c r="C19" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="28">
-        <v>5</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
-      <c r="C21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="C22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
-      <c r="C23" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="11"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="26"/>
     </row>
     <row r="24" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="25" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="29"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
     </row>
     <row r="27" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B27"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B8:B11"/>

--- a/Usability/Task Record Sheet.xlsx
+++ b/Usability/Task Record Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigaz\Documents\GitHub\HypermediaApplications2018\Usability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C237397-5292-421A-BD74-438EF7A64B67}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ADF7F0-902C-4DA0-A059-B7F1C37D4C5E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{368B787F-52DF-48B5-B0F9-8D1963533792}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
   <si>
     <t>Task Time:
 Min &amp; Sec</t>
@@ -89,13 +89,92 @@
   <si>
     <t>Clicked on "Services"
 instead of "Who We Are"</t>
+  </si>
+  <si>
+    <t>Found the solution using the map, instead of reading locations</t>
+  </si>
+  <si>
+    <t>Young Adult (M) 23Y</t>
+  </si>
+  <si>
+    <t>Adult with children
+(F) 48Y</t>
+  </si>
+  <si>
+    <t>Adult with children
+ (M) 47Y</t>
+  </si>
+  <si>
+    <t>Young Adult (M) 24Y</t>
+  </si>
+  <si>
+    <t>0 min 20 sec</t>
+  </si>
+  <si>
+    <t>2 min 21 sec</t>
+  </si>
+  <si>
+    <t>Didn't found link to
+"Who We Are" in the
+homepage</t>
+  </si>
+  <si>
+    <t>Wants "Contacts" more
+highlighted</t>
+  </si>
+  <si>
+    <t>0 min 30 sec</t>
+  </si>
+  <si>
+    <t>0 min 22 sec</t>
+  </si>
+  <si>
+    <t>0 min 34 sec</t>
+  </si>
+  <si>
+    <t>0 min 24 sec</t>
+  </si>
+  <si>
+    <t>0 min 19 sec</t>
+  </si>
+  <si>
+    <t>1 min 02 sec</t>
+  </si>
+  <si>
+    <t>0 min 12 sec</t>
+  </si>
+  <si>
+    <t>2 min 11 sec</t>
+  </si>
+  <si>
+    <t>0 min 11 sec</t>
+  </si>
+  <si>
+    <t>0 min 13 sec</t>
+  </si>
+  <si>
+    <t>0 min 48 sec</t>
+  </si>
+  <si>
+    <t>0 min 16 sec</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Wants "Locations"
+more highlighted</t>
+  </si>
+  <si>
+    <t>Wants Links
+more highlighted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,14 +199,6 @@
     <font>
       <b/>
       <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -161,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -350,21 +421,128 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -411,21 +589,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -462,13 +625,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -476,6 +633,51 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CDC930-621F-4BAE-B0CA-A07AEFB244A0}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -813,13 +1015,21 @@
       <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="22"/>
+      <c r="E2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="2:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -847,314 +1057,446 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17">
+      <c r="B4" s="31">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="24"/>
+      <c r="E4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="J4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="26"/>
+      <c r="D5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="J5" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="21">
         <v>1</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="26"/>
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>3</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
       <c r="J6" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="23"/>
       <c r="J7" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19">
+      <c r="B8" s="31">
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="30"/>
+      <c r="E8" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="26"/>
+      <c r="D9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="26">
-        <v>0</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="26"/>
+      <c r="D10" s="21">
+        <v>0</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="45">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="20"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="32"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
     </row>
     <row r="12" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17">
+      <c r="B12" s="31">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="24"/>
+      <c r="E12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="26"/>
+      <c r="D13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="26">
-        <v>0</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="26"/>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
+        <v>2</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="18"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="28"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="30" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="19">
+      <c r="B16" s="31">
         <v>4</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="30"/>
+      <c r="E16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="26"/>
+      <c r="D17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="26">
-        <v>0</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20"/>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0</v>
+      </c>
+      <c r="G18" s="36">
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="32"/>
       <c r="C19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="30" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16">
+      <c r="B20" s="31">
         <v>5</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="26"/>
+      <c r="E20" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="16"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="26"/>
+      <c r="D21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="26">
-        <v>0</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="6" t="s">
+      <c r="D22" s="21">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
+        <v>4</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" s="36">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="33"/>
+      <c r="C23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="26"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="30" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="36"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="36"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="36"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="36"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
